--- a/Lab9/Lab9.xlsx
+++ b/Lab9/Lab9.xlsx
@@ -3,18 +3,18 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24527"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7795B53C-93A4-4E44-B490-6DD3FC8B16AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D072AC22-EBCB-47C0-939C-428E6E45FCCA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="41496" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-93" yWindow="-93" windowWidth="25786" windowHeight="13986" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Lab 9" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
     <definedName name="_xlchart.v1.0" hidden="1">'Lab 9'!$G$7</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">'Lab 9'!$G$8:$G$23</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">'Lab 9'!$C$7:$C$23</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">'Lab 9'!$D$7:$D$23</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">'Lab 9'!$G$8:$G$31</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">'Lab 9'!$C$7:$C$31</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">'Lab 9'!$D$7:$D$31</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="33">
   <si>
     <r>
       <rPr>
@@ -211,69 +211,7 @@
     <t>sample mean + tnumber * st.d</t>
   </si>
   <si>
-    <t>reject</t>
-  </si>
-  <si>
     <t>&gt;5%</t>
-  </si>
-  <si>
-    <t>base on our bov, it is not likely that HRA60 is greater than 120</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Table 9.4: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">95% confidence interval for HRI </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>mean</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Table 9.4: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>95% confidence interval for HRI</t>
-    </r>
   </si>
   <si>
     <r>
@@ -332,6 +270,52 @@
       </rPr>
       <t>(st.d of  mean)</t>
     </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Table 9.4: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">95% confidence interval for </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>mean</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> HRI</t>
+    </r>
+  </si>
+  <si>
+    <t>base on our observation, it is not likely that HRA60 is greater than 120</t>
   </si>
 </sst>
 </file>
@@ -502,12 +486,6 @@
     <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -517,10 +495,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1641,16 +1625,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>584689</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>65942</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>232996</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>815</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>871904</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>144338</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>354135</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>79212</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
@@ -1686,8 +1670,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="1469781" y="4192465"/>
-              <a:ext cx="2737338" cy="2077181"/>
+              <a:off x="5025129" y="4310348"/>
+              <a:ext cx="2864339" cy="2080764"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -1719,16 +1703,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>660890</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>43962</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>107299</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>53732</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>1056542</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>107706</xdr:rowOff>
+      <xdr:colOff>317336</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>117477</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
@@ -1764,8 +1748,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="1545982" y="1626577"/>
-              <a:ext cx="2845775" cy="2244237"/>
+              <a:off x="2139299" y="4181232"/>
+              <a:ext cx="2970170" cy="2248145"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -2063,33 +2047,33 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:L31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="N23" sqref="N23"/>
+    <sheetView tabSelected="1" topLeftCell="C2" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="J24" sqref="J24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.35"/>
   <cols>
-    <col min="1" max="1" width="3.5546875" customWidth="1"/>
-    <col min="2" max="2" width="9.33203125" customWidth="1"/>
-    <col min="3" max="3" width="15.33203125" customWidth="1"/>
-    <col min="4" max="4" width="4.44140625" customWidth="1"/>
+    <col min="1" max="1" width="3.52734375" customWidth="1"/>
+    <col min="2" max="2" width="9.3515625" customWidth="1"/>
+    <col min="3" max="3" width="15.3515625" customWidth="1"/>
+    <col min="4" max="4" width="22.3515625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16" customWidth="1"/>
-    <col min="6" max="6" width="21.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.109375" customWidth="1"/>
-    <col min="8" max="8" width="1.6640625" customWidth="1"/>
-    <col min="9" max="9" width="22.5546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="21.33203125" customWidth="1"/>
-    <col min="11" max="11" width="25.6640625" customWidth="1"/>
+    <col min="6" max="6" width="21.3515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.1171875" customWidth="1"/>
+    <col min="8" max="8" width="1.64453125" customWidth="1"/>
+    <col min="9" max="9" width="22.52734375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="21.3515625" customWidth="1"/>
+    <col min="11" max="11" width="25.64453125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:11">
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
-      <c r="F2" s="18"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="16"/>
     </row>
     <row r="3" spans="2:11" ht="42" customHeight="1">
       <c r="B3" s="3" t="s">
@@ -2124,24 +2108,24 @@
       <c r="E6" s="21"/>
       <c r="F6" s="21"/>
       <c r="G6" s="21"/>
-      <c r="I6" s="20" t="s">
+      <c r="I6" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="J6" s="15"/>
-      <c r="K6" s="15"/>
+      <c r="J6" s="17"/>
+      <c r="K6" s="17"/>
     </row>
     <row r="7" spans="2:11">
       <c r="B7" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="15" t="s">
+      <c r="C7" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="15"/>
-      <c r="E7" s="15" t="s">
+      <c r="D7" s="17"/>
+      <c r="E7" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="F7" s="15"/>
+      <c r="F7" s="17"/>
       <c r="G7" s="2" t="s">
         <v>11</v>
       </c>
@@ -2157,14 +2141,14 @@
       <c r="B8" s="2">
         <v>1</v>
       </c>
-      <c r="C8" s="15">
+      <c r="C8" s="17">
         <v>128</v>
       </c>
-      <c r="D8" s="15"/>
-      <c r="E8" s="15">
+      <c r="D8" s="17"/>
+      <c r="E8" s="17">
         <v>100</v>
       </c>
-      <c r="F8" s="15"/>
+      <c r="F8" s="17"/>
       <c r="G8" s="1">
         <f>C8-E8</f>
         <v>28</v>
@@ -2173,10 +2157,11 @@
         <v>12</v>
       </c>
       <c r="J8" s="5">
-        <f>B23</f>
+        <f>COUNTA(C8:D31)</f>
         <v>16</v>
       </c>
       <c r="K8" s="5">
+        <f>COUNTA(G8:G31)</f>
         <v>16</v>
       </c>
     </row>
@@ -2184,14 +2169,14 @@
       <c r="B9" s="2">
         <v>2</v>
       </c>
-      <c r="C9" s="15">
+      <c r="C9" s="17">
         <v>68</v>
       </c>
-      <c r="D9" s="15"/>
-      <c r="E9" s="15">
+      <c r="D9" s="17"/>
+      <c r="E9" s="17">
         <v>60</v>
       </c>
-      <c r="F9" s="15"/>
+      <c r="F9" s="17"/>
       <c r="G9" s="1">
         <f t="shared" ref="G9:G23" si="0">C9-E9</f>
         <v>8</v>
@@ -2200,11 +2185,11 @@
         <v>13</v>
       </c>
       <c r="J9" s="8">
-        <f>AVERAGE(C8:D23)</f>
+        <f>AVERAGE(C8:D31)</f>
         <v>103.5</v>
       </c>
       <c r="K9" s="8">
-        <f>AVERAGE(G8:G23)</f>
+        <f>AVERAGE(G8:G31)</f>
         <v>30.75</v>
       </c>
     </row>
@@ -2212,14 +2197,14 @@
       <c r="B10" s="2">
         <v>3</v>
       </c>
-      <c r="C10" s="15">
+      <c r="C10" s="17">
         <v>120</v>
       </c>
-      <c r="D10" s="15"/>
-      <c r="E10" s="15">
+      <c r="D10" s="17"/>
+      <c r="E10" s="17">
         <v>96</v>
       </c>
-      <c r="F10" s="15"/>
+      <c r="F10" s="17"/>
       <c r="G10" s="1">
         <f t="shared" si="0"/>
         <v>24</v>
@@ -2228,11 +2213,11 @@
         <v>14</v>
       </c>
       <c r="J10" s="5">
-        <f>MEDIAN(C8:D23)</f>
+        <f>MEDIAN(C8:D31)</f>
         <v>104</v>
       </c>
       <c r="K10" s="5">
-        <f>MEDIAN(G8:G23)</f>
+        <f>MEDIAN(G8:G31)</f>
         <v>28</v>
       </c>
     </row>
@@ -2240,14 +2225,14 @@
       <c r="B11" s="2">
         <v>4</v>
       </c>
-      <c r="C11" s="15">
+      <c r="C11" s="17">
         <v>112</v>
       </c>
-      <c r="D11" s="15"/>
-      <c r="E11" s="15">
+      <c r="D11" s="17"/>
+      <c r="E11" s="17">
         <v>64</v>
       </c>
-      <c r="F11" s="15"/>
+      <c r="F11" s="17"/>
       <c r="G11" s="1">
         <f t="shared" si="0"/>
         <v>48</v>
@@ -2256,11 +2241,11 @@
         <v>15</v>
       </c>
       <c r="J11" s="8">
-        <f>_xlfn.STDEV.S(C8:D23)</f>
+        <f>_xlfn.STDEV.S(C8:D31)</f>
         <v>21.657946963335807</v>
       </c>
       <c r="K11" s="8">
-        <f>_xlfn.STDEV.S(G8:G23)</f>
+        <f>_xlfn.STDEV.S(G8:G31)</f>
         <v>19.378682445752947</v>
       </c>
     </row>
@@ -2268,14 +2253,14 @@
       <c r="B12" s="2">
         <v>5</v>
       </c>
-      <c r="C12" s="15">
+      <c r="C12" s="17">
         <v>104</v>
       </c>
-      <c r="D12" s="15"/>
-      <c r="E12" s="15">
+      <c r="D12" s="17"/>
+      <c r="E12" s="17">
         <v>80</v>
       </c>
-      <c r="F12" s="15"/>
+      <c r="F12" s="17"/>
       <c r="G12" s="1">
         <f t="shared" si="0"/>
         <v>24</v>
@@ -2284,11 +2269,11 @@
         <v>16</v>
       </c>
       <c r="J12" s="5">
-        <f>MIN(C8:D23)</f>
+        <f>MIN(C8:D31)</f>
         <v>68</v>
       </c>
       <c r="K12" s="5">
-        <f>MIN(G8:G23)</f>
+        <f>MIN(G8:G31)</f>
         <v>0</v>
       </c>
     </row>
@@ -2296,14 +2281,14 @@
       <c r="B13" s="2">
         <v>6</v>
       </c>
-      <c r="C13" s="15">
+      <c r="C13" s="17">
         <v>132</v>
       </c>
-      <c r="D13" s="15"/>
-      <c r="E13" s="15">
+      <c r="D13" s="17"/>
+      <c r="E13" s="17">
         <v>79</v>
       </c>
-      <c r="F13" s="15"/>
+      <c r="F13" s="17"/>
       <c r="G13" s="1">
         <f t="shared" si="0"/>
         <v>53</v>
@@ -2312,11 +2297,11 @@
         <v>17</v>
       </c>
       <c r="J13" s="5">
-        <f>MAX(C8:D23)</f>
+        <f>MAX(C8:D31)</f>
         <v>136</v>
       </c>
       <c r="K13" s="5">
-        <f>MAX(G8:G23)</f>
+        <f>MAX(G8:G31)</f>
         <v>68</v>
       </c>
     </row>
@@ -2324,20 +2309,20 @@
       <c r="B14" s="2">
         <v>7</v>
       </c>
-      <c r="C14" s="15">
+      <c r="C14" s="17">
         <v>124</v>
       </c>
-      <c r="D14" s="15"/>
-      <c r="E14" s="15">
+      <c r="D14" s="17"/>
+      <c r="E14" s="17">
         <v>56</v>
       </c>
-      <c r="F14" s="15"/>
+      <c r="F14" s="17"/>
       <c r="G14" s="1">
         <f t="shared" si="0"/>
         <v>68</v>
       </c>
       <c r="I14" s="12" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="J14" s="13">
         <f>J11/SQRT(J8)</f>
@@ -2352,36 +2337,36 @@
       <c r="B15" s="2">
         <v>8</v>
       </c>
-      <c r="C15" s="15">
+      <c r="C15" s="17">
         <v>80</v>
       </c>
-      <c r="D15" s="15"/>
-      <c r="E15" s="15">
+      <c r="D15" s="17"/>
+      <c r="E15" s="17">
         <v>72</v>
       </c>
-      <c r="F15" s="15"/>
+      <c r="F15" s="17"/>
       <c r="G15" s="1">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="I15" s="14" t="s">
+      <c r="I15" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="J15" s="15"/>
-      <c r="K15" s="15"/>
+      <c r="J15" s="17"/>
+      <c r="K15" s="17"/>
     </row>
     <row r="16" spans="2:11">
       <c r="B16" s="2">
         <v>9</v>
       </c>
-      <c r="C16" s="15">
+      <c r="C16" s="17">
         <v>104</v>
       </c>
-      <c r="D16" s="15"/>
-      <c r="E16" s="15">
+      <c r="D16" s="17"/>
+      <c r="E16" s="17">
         <v>60</v>
       </c>
-      <c r="F16" s="15"/>
+      <c r="F16" s="17"/>
       <c r="G16" s="1">
         <f t="shared" si="0"/>
         <v>44</v>
@@ -2398,14 +2383,14 @@
       <c r="B17" s="2">
         <v>10</v>
       </c>
-      <c r="C17" s="15">
+      <c r="C17" s="17">
         <v>76</v>
       </c>
-      <c r="D17" s="15"/>
-      <c r="E17" s="15">
+      <c r="D17" s="17"/>
+      <c r="E17" s="17">
         <v>60</v>
       </c>
-      <c r="F17" s="15"/>
+      <c r="F17" s="17"/>
       <c r="G17" s="1">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -2414,8 +2399,8 @@
         <v>19</v>
       </c>
       <c r="J17" s="10">
-        <f>_xlfn.T.INV(0.025,J8-1)*J14+K9</f>
-        <v>19.209294696810051</v>
+        <f>_xlfn.T.INV(0.025,K8-1)*K14+K9</f>
+        <v>20.423829026863174</v>
       </c>
       <c r="K17" s="10">
         <f>_xlfn.T.INV(0.975,K8-1)*K14+K9</f>
@@ -2426,14 +2411,14 @@
       <c r="B18" s="2">
         <v>11</v>
       </c>
-      <c r="C18" s="15">
+      <c r="C18" s="17">
         <v>100</v>
       </c>
-      <c r="D18" s="15"/>
-      <c r="E18" s="15">
+      <c r="D18" s="17"/>
+      <c r="E18" s="17">
         <v>72</v>
       </c>
-      <c r="F18" s="15"/>
+      <c r="F18" s="17"/>
       <c r="G18" s="1">
         <f t="shared" si="0"/>
         <v>28</v>
@@ -2446,36 +2431,36 @@
       <c r="B19" s="2">
         <v>12</v>
       </c>
-      <c r="C19" s="15">
+      <c r="C19" s="17">
         <v>84</v>
       </c>
-      <c r="D19" s="15"/>
-      <c r="E19" s="15">
+      <c r="D19" s="17"/>
+      <c r="E19" s="17">
         <v>69</v>
       </c>
-      <c r="F19" s="15"/>
+      <c r="F19" s="17"/>
       <c r="G19" s="1">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="I19" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="J19" s="15"/>
-      <c r="K19" s="15"/>
+      <c r="I19" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="J19" s="17"/>
+      <c r="K19" s="17"/>
     </row>
     <row r="20" spans="2:12">
       <c r="B20" s="2">
         <v>13</v>
       </c>
-      <c r="C20" s="15">
+      <c r="C20" s="17">
         <v>112</v>
       </c>
-      <c r="D20" s="15"/>
-      <c r="E20" s="15">
+      <c r="D20" s="17"/>
+      <c r="E20" s="17">
         <v>72</v>
       </c>
-      <c r="F20" s="15"/>
+      <c r="F20" s="17"/>
       <c r="G20" s="1">
         <f t="shared" si="0"/>
         <v>40</v>
@@ -2492,14 +2477,14 @@
       <c r="B21" s="2">
         <v>14</v>
       </c>
-      <c r="C21" s="15">
+      <c r="C21" s="17">
         <v>76</v>
       </c>
-      <c r="D21" s="15"/>
-      <c r="E21" s="15">
+      <c r="D21" s="17"/>
+      <c r="E21" s="17">
         <v>76</v>
       </c>
-      <c r="F21" s="15"/>
+      <c r="F21" s="17"/>
       <c r="G21" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -2516,21 +2501,21 @@
         <v>0.99592655916658812</v>
       </c>
       <c r="L21" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="22" spans="2:12">
       <c r="B22" s="2">
         <v>15</v>
       </c>
-      <c r="C22" s="15">
+      <c r="C22" s="17">
         <v>100</v>
       </c>
-      <c r="D22" s="15"/>
-      <c r="E22" s="15">
+      <c r="D22" s="17"/>
+      <c r="E22" s="17">
         <v>68</v>
       </c>
-      <c r="F22" s="15"/>
+      <c r="F22" s="17"/>
       <c r="G22" s="1">
         <f t="shared" si="0"/>
         <v>32</v>
@@ -2538,23 +2523,24 @@
       <c r="I22" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="J22" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="K22" s="19"/>
+      <c r="J22" s="18" t="str">
+        <f>IF(K21&gt;0.05,"not reject","reject")</f>
+        <v>not reject</v>
+      </c>
+      <c r="K22" s="18"/>
     </row>
     <row r="23" spans="2:12">
       <c r="B23" s="2">
         <v>16</v>
       </c>
-      <c r="C23" s="15">
+      <c r="C23" s="17">
         <v>136</v>
       </c>
-      <c r="D23" s="15"/>
-      <c r="E23" s="15">
+      <c r="D23" s="17"/>
+      <c r="E23" s="17">
         <v>80</v>
       </c>
-      <c r="F23" s="15"/>
+      <c r="F23" s="17"/>
       <c r="G23" s="1">
         <f t="shared" si="0"/>
         <v>56</v>
@@ -2562,116 +2548,93 @@
       <c r="I23" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="J23" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="K23" s="19"/>
+      <c r="J23" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="K23" s="18"/>
     </row>
     <row r="24" spans="2:12">
       <c r="B24" s="2">
         <v>17</v>
       </c>
-      <c r="C24" s="15"/>
-      <c r="D24" s="15"/>
-      <c r="E24" s="15"/>
-      <c r="F24" s="15"/>
+      <c r="C24" s="17"/>
+      <c r="D24" s="17"/>
+      <c r="E24" s="17"/>
+      <c r="F24" s="17"/>
       <c r="G24" s="1"/>
     </row>
     <row r="25" spans="2:12">
       <c r="B25" s="2">
         <v>18</v>
       </c>
-      <c r="C25" s="15"/>
-      <c r="D25" s="15"/>
-      <c r="E25" s="15"/>
-      <c r="F25" s="15"/>
+      <c r="C25" s="17"/>
+      <c r="D25" s="17"/>
+      <c r="E25" s="17"/>
+      <c r="F25" s="17"/>
       <c r="G25" s="1"/>
-      <c r="I25" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="J25" s="15"/>
-      <c r="K25" s="15"/>
     </row>
     <row r="26" spans="2:12">
       <c r="B26" s="2">
         <v>19</v>
       </c>
-      <c r="C26" s="15"/>
-      <c r="D26" s="15"/>
-      <c r="E26" s="15"/>
-      <c r="F26" s="15"/>
+      <c r="C26" s="17"/>
+      <c r="D26" s="17"/>
+      <c r="E26" s="17"/>
+      <c r="F26" s="17"/>
       <c r="G26" s="1"/>
-      <c r="I26" s="1"/>
-      <c r="J26" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="K26" s="1" t="s">
-        <v>21</v>
-      </c>
     </row>
     <row r="27" spans="2:12">
       <c r="B27" s="2">
         <v>20</v>
       </c>
-      <c r="C27" s="15"/>
-      <c r="D27" s="15"/>
-      <c r="E27" s="15"/>
-      <c r="F27" s="15"/>
+      <c r="C27" s="17"/>
+      <c r="D27" s="17"/>
+      <c r="E27" s="17"/>
+      <c r="F27" s="17"/>
       <c r="G27" s="1"/>
-      <c r="I27" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="J27" s="10">
-        <f>_xlfn.T.INV(0.025,K8-1)*K11+K9</f>
-        <v>-10.554683892547295</v>
-      </c>
-      <c r="K27" s="10">
-        <f>_xlfn.T.INV(0.975,K8-1)*K11+K9</f>
-        <v>72.054683892547303</v>
-      </c>
     </row>
     <row r="28" spans="2:12">
       <c r="B28" s="2">
         <v>21</v>
       </c>
-      <c r="C28" s="15"/>
-      <c r="D28" s="15"/>
-      <c r="E28" s="15"/>
-      <c r="F28" s="15"/>
+      <c r="C28" s="17"/>
+      <c r="D28" s="17"/>
+      <c r="E28" s="17"/>
+      <c r="F28" s="17"/>
       <c r="G28" s="1"/>
     </row>
     <row r="29" spans="2:12">
       <c r="B29" s="2">
         <v>22</v>
       </c>
-      <c r="C29" s="15"/>
-      <c r="D29" s="15"/>
-      <c r="E29" s="15"/>
-      <c r="F29" s="15"/>
+      <c r="C29" s="17"/>
+      <c r="D29" s="17"/>
+      <c r="E29" s="17"/>
+      <c r="F29" s="17"/>
       <c r="G29" s="1"/>
     </row>
     <row r="30" spans="2:12">
       <c r="B30" s="2">
         <v>23</v>
       </c>
-      <c r="C30" s="15"/>
-      <c r="D30" s="15"/>
-      <c r="E30" s="15"/>
-      <c r="F30" s="15"/>
+      <c r="C30" s="17"/>
+      <c r="D30" s="17"/>
+      <c r="E30" s="17"/>
+      <c r="F30" s="17"/>
       <c r="G30" s="1"/>
     </row>
     <row r="31" spans="2:12">
       <c r="B31" s="2">
         <v>24</v>
       </c>
-      <c r="C31" s="15"/>
-      <c r="D31" s="15"/>
-      <c r="E31" s="15"/>
-      <c r="F31" s="15"/>
+      <c r="C31" s="17"/>
+      <c r="D31" s="17"/>
+      <c r="E31" s="17"/>
+      <c r="F31" s="17"/>
       <c r="G31" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="58">
+  <mergeCells count="57">
     <mergeCell ref="I6:K6"/>
     <mergeCell ref="I15:K15"/>
     <mergeCell ref="B6:G6"/>
@@ -2686,21 +2649,6 @@
     <mergeCell ref="C17:D17"/>
     <mergeCell ref="C18:D18"/>
     <mergeCell ref="C19:D19"/>
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="E30:F30"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="C30:D30"/>
     <mergeCell ref="C31:D31"/>
     <mergeCell ref="E8:F8"/>
     <mergeCell ref="E9:F9"/>
@@ -2714,12 +2662,23 @@
     <mergeCell ref="C25:D25"/>
     <mergeCell ref="C26:D26"/>
     <mergeCell ref="C27:D27"/>
-    <mergeCell ref="I25:K25"/>
-    <mergeCell ref="B2:F2"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="J22:K22"/>
+    <mergeCell ref="J23:K23"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="E30:F30"/>
     <mergeCell ref="C20:D20"/>
     <mergeCell ref="C21:D21"/>
     <mergeCell ref="C10:D10"/>
@@ -2728,8 +2687,11 @@
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="C14:D14"/>
     <mergeCell ref="C15:D15"/>
-    <mergeCell ref="J22:K22"/>
-    <mergeCell ref="J23:K23"/>
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="C9:D9"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
